--- a/biology/Histoire de la zoologie et de la botanique/Maximilian_Perty/Maximilian_Perty.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Maximilian_Perty/Maximilian_Perty.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josef Anton Maximilian Perty, né le 17 septembre 1804 à Ornbau et mort le 8 août 1884 à Berne, est un entomologiste bavarois et philosophe de la nature qui fit carrière comme professeur à l'université de Berne.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite dès sa petite enfance à Munich et fréquente le lycée à Munich et à Tölz. Ensuite il poursuit des études de sciences naturelles et de médecine à Landshut. Il reçoit son diplôme de docteur en médecine de l'université de Landshut (de) en 1826, mais il n'exerce pas et se tourne vers les sciences naturelles.
 Comme l'université de Landshut déménage à Munich en 1827, il collabore avec le philosophe de la nature et conservateur de la collection zoologique de l'Académie royale des sciences de Bavière, Gotthilf Heinrich von Schubert. Il étudie spécialement les insectes, en particulier ceux rapportés du Brésil par Johann Baptist von Spix et Carl Friedrich Philipp von Martius à l'issue de leur expédition de 1817-1820. Perty décrit 622 sortes d'insectes dont 308 coléoptères. Cependant Perty ne reçoit aucun appui de l'Académie. Il donne des leçons à de jeunes zoologistes. Il ne devient privat-dozent qu'en 1831.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Delectus Animalium Articulatorum quae in itinere per Brasiliam Annis MDCCCXVII - MDCCCXX Iussu et Auspiciis Maximiliani Josephi I. Bavariae Regis Augustissimi, percato collegerunt Dr J. B. de Spix et Dr. C. F. Ph. de Martius, 1830–1834
 Observationes nonnulae in Coleoptera Indiae orientalis, München 1831 (Habilitationsschrift)
